--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/DISTRICT_OF_COLUMBIA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/DISTRICT_OF_COLUMBIA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>PABELLÓN DE ARTEAGA</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C4">
@@ -426,12 +426,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C5">
@@ -444,7 +444,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6">
@@ -457,12 +457,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C7">
@@ -475,7 +475,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C8">
@@ -488,12 +488,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C9">
@@ -506,7 +506,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C10">
@@ -519,7 +519,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C11">
@@ -532,7 +532,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C12">
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C13">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C14">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -584,12 +584,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C16">
@@ -602,7 +602,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C17">
@@ -615,12 +615,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C18">
@@ -633,7 +633,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C19">
@@ -646,7 +646,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C20">
@@ -659,7 +659,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C21">
@@ -672,7 +672,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C22">
@@ -685,7 +685,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C23">
@@ -698,7 +698,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C24">
@@ -711,7 +711,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C25">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C26">
@@ -737,7 +737,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C27">
@@ -750,12 +750,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C28">
@@ -768,7 +768,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C29">
@@ -781,7 +781,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C30">
@@ -794,7 +794,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C31">
@@ -807,7 +807,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C32">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C33">
@@ -833,7 +833,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>TEOLOYUCAN</t>
+          <t>Teoloyucan</t>
         </is>
       </c>
       <c r="C34">
@@ -846,7 +846,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C35">
@@ -859,7 +859,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>TULTITLÁN</t>
+          <t>Tultitlán</t>
         </is>
       </c>
       <c r="C36">
@@ -872,7 +872,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C37">
@@ -885,12 +885,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C38">
@@ -903,7 +903,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>ACATEPEC</t>
+          <t>Acatepec</t>
         </is>
       </c>
       <c r="C39">
@@ -916,7 +916,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C40">
@@ -929,7 +929,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>ALCOZAUCA DE GUERRERO</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C41">
@@ -942,7 +942,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>ATENANGO DEL RÍO</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C42">
@@ -955,7 +955,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C43">
@@ -968,7 +968,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C44">
@@ -981,7 +981,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C45">
@@ -994,7 +994,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>COAHUAYUTLA DE JOSÉ MARÍA IZAZAGA</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C46">
@@ -1007,7 +1007,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>COPANATOYAC</t>
+          <t>Copanatoyac</t>
         </is>
       </c>
       <c r="C47">
@@ -1020,7 +1020,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>CUALÁC</t>
+          <t>Cualác</t>
         </is>
       </c>
       <c r="C48">
@@ -1033,7 +1033,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C49">
@@ -1046,7 +1046,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C50">
@@ -1059,7 +1059,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C51">
@@ -1072,7 +1072,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C52">
@@ -1085,7 +1085,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>TLACOAPA</t>
+          <t>Tlacoapa</t>
         </is>
       </c>
       <c r="C53">
@@ -1098,7 +1098,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C54">
@@ -1111,7 +1111,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>ZITLALA</t>
+          <t>Zitlala</t>
         </is>
       </c>
       <c r="C55">
@@ -1124,7 +1124,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C56">
@@ -1137,12 +1137,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C57">
@@ -1155,7 +1155,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C58">
@@ -1168,12 +1168,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C59">
@@ -1186,7 +1186,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C60">
@@ -1199,12 +1199,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C61">
@@ -1217,7 +1217,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C62">
@@ -1230,7 +1230,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C63">
@@ -1243,7 +1243,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C64">
@@ -1256,7 +1256,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C65">
@@ -1269,12 +1269,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CHAHUITES</t>
+          <t>Chahuites</t>
         </is>
       </c>
       <c r="C66">
@@ -1287,7 +1287,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>CHALCATONGO DE HIDALGO</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C67">
@@ -1300,7 +1300,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C68">
@@ -1313,7 +1313,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C69">
@@ -1326,7 +1326,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL MAR</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C70">
@@ -1339,7 +1339,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO TELIXTLAHUACA</t>
+          <t>San Francisco Telixtlahuaca</t>
         </is>
       </c>
       <c r="C71">
@@ -1352,7 +1352,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA JAYACATLÁN</t>
+          <t>San Juan Bautista Jayacatlán</t>
         </is>
       </c>
       <c r="C72">
@@ -1365,7 +1365,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C73">
@@ -1378,7 +1378,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA VALLE NACIONAL</t>
+          <t>San Juan Bautista Valle Nacional</t>
         </is>
       </c>
       <c r="C74">
@@ -1391,7 +1391,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>SAN PABLO HUITZO</t>
+          <t>San Pablo Huitzo</t>
         </is>
       </c>
       <c r="C75">
@@ -1404,7 +1404,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C76">
@@ -1417,7 +1417,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>SANTA CATARINA LACHATAO</t>
+          <t>Santa Catarina Lachatao</t>
         </is>
       </c>
       <c r="C77">
@@ -1430,7 +1430,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C78">
@@ -1443,7 +1443,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C79">
@@ -1456,12 +1456,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ACATZINGO</t>
+          <t>Acatzingo</t>
         </is>
       </c>
       <c r="C80">
@@ -1474,7 +1474,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>CHAPULCO</t>
+          <t>Chapulco</t>
         </is>
       </c>
       <c r="C81">
@@ -1487,7 +1487,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C82">
@@ -1500,7 +1500,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>EPATLÁN</t>
+          <t>Epatlán</t>
         </is>
       </c>
       <c r="C83">
@@ -1513,7 +1513,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>GENERAL FELIPE ÁNGELES</t>
+          <t>General Felipe Ángeles</t>
         </is>
       </c>
       <c r="C84">
@@ -1526,7 +1526,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>IXCAMILPA DE GUERRERO</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C85">
@@ -1539,7 +1539,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>IXCAQUIXTLA</t>
+          <t>Ixcaquixtla</t>
         </is>
       </c>
       <c r="C86">
@@ -1552,7 +1552,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C87">
@@ -1565,7 +1565,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C88">
@@ -1578,7 +1578,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>NEALTICAN</t>
+          <t>Nealtican</t>
         </is>
       </c>
       <c r="C89">
@@ -1591,7 +1591,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>SANTIAGO MIAHUATLÁN</t>
+          <t>Santiago Miahuatlán</t>
         </is>
       </c>
       <c r="C90">
@@ -1604,7 +1604,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C91">
@@ -1617,7 +1617,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>TEHUITZINGO</t>
+          <t>Tehuitzingo</t>
         </is>
       </c>
       <c r="C92">
@@ -1630,7 +1630,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>TEPANCO DE LÓPEZ</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C93">
@@ -1643,7 +1643,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C94">
@@ -1656,7 +1656,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C95">
@@ -1669,7 +1669,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C96">
@@ -1682,7 +1682,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C97">
@@ -1695,12 +1695,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C98">
@@ -1713,7 +1713,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C99">
@@ -1726,12 +1726,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C100">
@@ -1744,7 +1744,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C101">
@@ -1757,12 +1757,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ALAMOS</t>
+          <t>Alamos</t>
         </is>
       </c>
       <c r="C102">
@@ -1775,7 +1775,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C103">
@@ -1788,12 +1788,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C104">
@@ -1806,7 +1806,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C105">
@@ -1819,12 +1819,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C106">
@@ -1837,7 +1837,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>TEPEYANCO</t>
+          <t>Tepeyanco</t>
         </is>
       </c>
       <c r="C107">
@@ -1850,7 +1850,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>TETLA DE LA SOLIDARIDAD</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C108">
@@ -1863,7 +1863,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C109">
@@ -1876,7 +1876,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>TOCATLÁN</t>
+          <t>Tocatlán</t>
         </is>
       </c>
       <c r="C110">
@@ -1889,7 +1889,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>YAUHQUEMEHCAN</t>
+          <t>Yauhquemehcan</t>
         </is>
       </c>
       <c r="C111">
@@ -1902,7 +1902,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C112">
@@ -1915,12 +1915,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AMATLÁN DE LOS REYES</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C113">
@@ -1933,7 +1933,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C114">
@@ -1946,7 +1946,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C115">
@@ -1959,7 +1959,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C116">
@@ -1972,7 +1972,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C117">
@@ -1985,7 +1985,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C118">
@@ -1998,7 +1998,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C119">
@@ -2011,7 +2011,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C120">
@@ -2024,7 +2024,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C121">
@@ -2037,7 +2037,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C122">
@@ -2050,7 +2050,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C123">
@@ -2058,41 +2058,6 @@
       </c>
       <c r="D123">
         <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/DISTRICT_OF_COLUMBIA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/DISTRICT_OF_COLUMBIA_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San José Del Rincón</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Cualác</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zitlala</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>San Francisco Del Mar</t>
@@ -1337,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>San Francisco Telixtlahuaca</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>San Juan Bautista Jayacatlán</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Santa Catarina Lachatao</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1472,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -1485,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -1498,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>General Felipe Ángeles</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ixcamilpa De Guerrero</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Ixcaquixtla</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Santiago Miahuatlán</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1742,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1773,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1804,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1835,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tepeyanco</t>
@@ -1848,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -1861,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -1874,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tocatlán</t>
@@ -1887,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -1900,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1931,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -1944,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1957,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1970,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -1983,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1996,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2009,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2022,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2035,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
